--- a/ФСУ/9109.xlsx
+++ b/ФСУ/9109.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Desktop\bot\ФСУ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DFC2EA-40C5-42A2-BFBF-46350330A1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA09A3D5-6A34-4983-ADB3-142B474A44C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Предмет</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Анализ данных в социологии</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -294,26 +297,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -656,7 +659,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:P14"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,13 +725,13 @@
       <c r="H2" s="4">
         <v>1</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -755,13 +758,13 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -788,13 +791,13 @@
       <c r="H4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -821,12 +824,12 @@
       <c r="H5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -854,12 +857,12 @@
       <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
       <c r="P6" s="8"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -887,12 +890,12 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
       <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -920,12 +923,12 @@
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
       <c r="P8" s="8"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -953,12 +956,12 @@
       <c r="H9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
       <c r="P9" s="8"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -986,12 +989,12 @@
       <c r="H10" s="5">
         <v>0</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
       <c r="P10" s="8"/>
     </row>
     <row r="11" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1019,12 +1022,12 @@
       <c r="H11" s="5">
         <v>1</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="11"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
       <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1052,13 +1055,13 @@
       <c r="H12" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1085,13 +1088,13 @@
       <c r="H13" s="5">
         <v>0</v>
       </c>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -1118,13 +1121,13 @@
       <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
@@ -1285,14 +1288,24 @@
       <c r="B21" s="5">
         <v>6</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
       <c r="D21" s="5">
         <v>2</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
@@ -1336,13 +1349,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -1355,6 +1361,13 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
